--- a/Practise Exercise -3.xlsx
+++ b/Practise Exercise -3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS\9june\Assignments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS\2. June\9\practice_exercise_1_5_June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36806805-0C27-4AE8-A47E-3FECC9960999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9165127D-F0EB-4930-8E91-E71A9F153849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{AC84C862-0DCB-4223-95CE-278E792351A5}"/>
   </bookViews>
@@ -40,28 +40,6 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="108">
   <si>
@@ -393,7 +371,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,6 +598,14 @@
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -812,7 +798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -912,6 +898,9 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="18" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -921,9 +910,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1239,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A95956A-63B6-4E1C-AC4F-463CF012A22F}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1487,7 +1474,7 @@
       <c r="A22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="67" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1495,45 +1482,20 @@
       <c r="A23" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="12" cm="1">
-        <f t="array" ref="B23:B29">_xlfn.UNIQUE(B5:B11,,)</f>
+      <c r="B23" s="12">
+        <f>COUNTA(A5:A11)</f>
         <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B24">
-        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A25" s="11"/>
-      <c r="B25">
-        <v>6</v>
-      </c>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A26" s="11"/>
-      <c r="B26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B27" t="str">
-        <v>Three</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B28" t="str">
-        <v xml:space="preserve">I don't know </v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B29" t="str">
-        <v>David</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1541,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44936BDE-6078-42AD-B2DE-5A467FCC4596}">
   <dimension ref="A2:H25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1889,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63573841-E778-40EC-85D0-28F629AFC2C1}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1908,8 +1870,8 @@
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
@@ -1994,8 +1956,8 @@
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
@@ -2011,8 +1973,8 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="1"/>
@@ -2033,11 +1995,11 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="60">
+      <c r="A18" s="61">
         <f>COUNT(B3:B13)</f>
         <v>2</v>
       </c>
-      <c r="B18" s="60"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="8"/>
       <c r="D18" s="7"/>
       <c r="E18" s="1"/>
@@ -2045,8 +2007,8 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="1"/>
@@ -2067,11 +2029,11 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="60">
+      <c r="A21" s="61">
         <f>COUNTBLANK(B3:B13)</f>
         <v>4</v>
       </c>
-      <c r="B21" s="60"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="8"/>
       <c r="D21" s="7"/>
       <c r="E21" s="1"/>
@@ -2079,8 +2041,8 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="1"/>
@@ -2101,11 +2063,11 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="60">
+      <c r="A24" s="61">
         <f>COUNTA(B3:B13)-COUNT(B3:B13)</f>
         <v>5</v>
       </c>
-      <c r="B24" s="60"/>
+      <c r="B24" s="61"/>
       <c r="C24" s="8"/>
       <c r="D24" s="7"/>
       <c r="E24" s="1"/>
@@ -2113,8 +2075,8 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="1"/>
@@ -2135,11 +2097,11 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="61">
-        <f>COUNTA(B3:B13)+COUNTBLANK(B3:B13)</f>
-        <v>11</v>
-      </c>
-      <c r="B27" s="61"/>
+      <c r="A27" s="62">
+        <f>COUNTA(B3:B13)</f>
+        <v>7</v>
+      </c>
+      <c r="B27" s="62"/>
       <c r="C27" s="8"/>
       <c r="D27" s="7"/>
       <c r="E27" s="1"/>
@@ -2147,14 +2109,14 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
-      <c r="B28" s="58"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="59"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="57"/>
-      <c r="B29" s="57"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
     </row>
@@ -2182,7 +2144,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2308,8 +2270,8 @@
         <v>62</v>
       </c>
       <c r="C13" s="33">
-        <f>AVERAGE(C11:C12)</f>
-        <v>204.5</v>
+        <f>C11-C12</f>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2323,7 +2285,7 @@
         <f>LARGE(C4:C9,2)</f>
         <v>200</v>
       </c>
-      <c r="D14" s="66">
+      <c r="D14" s="57">
         <f>LARGE(C4:C9,3)</f>
         <v>190</v>
       </c>
@@ -2350,7 +2312,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2573,8 +2535,8 @@
       <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -2584,8 +2546,8 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -2618,8 +2580,8 @@
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="44">
-        <f>COUNTIF(D2:D11,"Yes")</f>
-        <v>7</v>
+        <f>SUMIF($D$2:$D$11,"Yes",C2:C11)</f>
+        <v>79000</v>
       </c>
       <c r="I15" s="15"/>
     </row>
@@ -2636,14 +2598,14 @@
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="44">
-        <f>SUMIF(D2:D11,"No",C2:C11)</f>
+        <f>SUMIF($D$2:$D$11,"No",C2:C11)</f>
         <v>27000</v>
       </c>
       <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -2665,14 +2627,14 @@
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18" s="44">
-        <f>SUMIFS(E2:E11,C2:C11,"&gt;10000")</f>
+        <f>SUMIF($C$2:$C$11,"&gt;10,000",E2:E11)</f>
         <v>1028</v>
       </c>
       <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -2694,7 +2656,7 @@
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
       <c r="H20" s="56">
-        <f>SUMIFS(C2:C11,C2:C11,"&gt;10000")</f>
+        <f>SUMIF(C2:C11,"&gt;10000",C2:C11)</f>
         <v>65000</v>
       </c>
       <c r="I20" s="15"/>
@@ -2712,14 +2674,14 @@
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
       <c r="H21" s="44">
-        <f>SUMIFS(C2:C11,C2:C11,"&lt;9500")</f>
+        <f>SUMIF(C2:C11,"&lt;9500",C2:C11)</f>
         <v>31000</v>
       </c>
       <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="63"/>
-      <c r="B22" s="63"/>
+      <c r="A22" s="64"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
@@ -2744,7 +2706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF1E529-E5BD-4B28-A66D-07BD3629B687}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -2933,8 +2895,8 @@
       <c r="F11" s="48"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="65"/>
-      <c r="B12" s="65"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="48"/>
       <c r="D12" s="48"/>
       <c r="E12" s="48"/>
@@ -2951,8 +2913,8 @@
       <c r="F13" s="48"/>
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="48"/>
@@ -2971,8 +2933,8 @@
       <c r="F15" s="48"/>
     </row>
     <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="54" t="s">
         <v>102</v>
       </c>
@@ -2994,8 +2956,8 @@
       <c r="F17" s="48"/>
     </row>
     <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="48"/>
@@ -3014,8 +2976,8 @@
       <c r="F19" s="48"/>
     </row>
     <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="54" t="s">
         <v>102</v>
       </c>
@@ -3037,8 +2999,8 @@
       <c r="F21" s="48"/>
     </row>
     <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="64"/>
-      <c r="B22" s="64"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="48"/>
@@ -3057,8 +3019,8 @@
       <c r="F23" s="48"/>
     </row>
     <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="64"/>
-      <c r="B24" s="64"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="54" t="s">
         <v>102</v>
       </c>
@@ -3080,8 +3042,8 @@
       <c r="F25" s="48"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="48"/>
       <c r="D26" s="48"/>
       <c r="E26" s="48"/>
@@ -3098,8 +3060,8 @@
       <c r="D27" s="17"/>
     </row>
     <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="54" t="s">
         <v>102</v>
       </c>
